--- a/Test Runs/alpha_0_beta_0_gamma_1_Run_9.xlsx
+++ b/Test Runs/alpha_0_beta_0_gamma_1_Run_9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Optmization_Formulation\EquitableRetirement\Test Runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Optmization_Formulation\EquitableRetirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B60D937-852F-4A0E-8EDA-9FCC4B81A3B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB347CC-8FBA-445B-B5B0-A2E006152A40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13188" yWindow="1536" windowWidth="8796" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
   </si>
   <si>
     <t>[[[ 0.  0.  0.]
-  [ 0. 15. 15.]]]</t>
+  [ 0. 10. 10.]]]</t>
   </si>
   <si>
     <t>Coal Gen</t>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
